--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220524_110206.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220524_110206.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="257">
   <si>
     <t>사이트</t>
   </si>
@@ -691,7 +691,7 @@
     <t>꿈의엔진</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>SM</t>
@@ -752,9 +752,6 @@
   </si>
   <si>
     <t>빅히트</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>니즈먼트</t>
@@ -1200,7 +1197,7 @@
         <v>218</v>
       </c>
       <c r="H2" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1252,7 +1249,7 @@
         <v>220</v>
       </c>
       <c r="H4" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1278,7 +1275,7 @@
         <v>221</v>
       </c>
       <c r="H5" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1330,7 +1327,7 @@
         <v>223</v>
       </c>
       <c r="H7" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1356,7 +1353,7 @@
         <v>221</v>
       </c>
       <c r="H8" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1382,7 +1379,7 @@
         <v>224</v>
       </c>
       <c r="H9" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1408,7 +1405,7 @@
         <v>225</v>
       </c>
       <c r="H10" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1434,7 +1431,7 @@
         <v>221</v>
       </c>
       <c r="H11" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1512,7 +1509,7 @@
         <v>223</v>
       </c>
       <c r="H14" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1538,7 +1535,7 @@
         <v>221</v>
       </c>
       <c r="H15" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1564,7 +1561,7 @@
         <v>228</v>
       </c>
       <c r="H16" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1590,7 +1587,7 @@
         <v>221</v>
       </c>
       <c r="H17" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1616,7 +1613,7 @@
         <v>221</v>
       </c>
       <c r="H18" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1642,7 +1639,7 @@
         <v>221</v>
       </c>
       <c r="H19" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1668,7 +1665,7 @@
         <v>221</v>
       </c>
       <c r="H20" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1694,7 +1691,7 @@
         <v>221</v>
       </c>
       <c r="H21" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1720,7 +1717,7 @@
         <v>229</v>
       </c>
       <c r="H22" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1746,7 +1743,7 @@
         <v>221</v>
       </c>
       <c r="H23" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1772,7 +1769,7 @@
         <v>221</v>
       </c>
       <c r="H24" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1798,7 +1795,7 @@
         <v>221</v>
       </c>
       <c r="H25" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1824,7 +1821,7 @@
         <v>221</v>
       </c>
       <c r="H26" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1850,7 +1847,7 @@
         <v>221</v>
       </c>
       <c r="H27" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1876,7 +1873,7 @@
         <v>230</v>
       </c>
       <c r="H28" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1928,7 +1925,7 @@
         <v>231</v>
       </c>
       <c r="H30" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1954,7 +1951,7 @@
         <v>232</v>
       </c>
       <c r="H31" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1980,7 +1977,7 @@
         <v>233</v>
       </c>
       <c r="H32" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2032,7 +2029,7 @@
         <v>234</v>
       </c>
       <c r="H34" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2058,7 +2055,7 @@
         <v>218</v>
       </c>
       <c r="H35" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2084,7 +2081,7 @@
         <v>235</v>
       </c>
       <c r="H36" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2110,7 +2107,7 @@
         <v>236</v>
       </c>
       <c r="H37" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2136,7 +2133,7 @@
         <v>237</v>
       </c>
       <c r="H38" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2162,7 +2159,7 @@
         <v>220</v>
       </c>
       <c r="H39" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2188,7 +2185,7 @@
         <v>218</v>
       </c>
       <c r="H40" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2214,7 +2211,7 @@
         <v>236</v>
       </c>
       <c r="H41" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2266,7 +2263,7 @@
         <v>238</v>
       </c>
       <c r="H43" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2292,7 +2289,7 @@
         <v>230</v>
       </c>
       <c r="H44" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2318,7 +2315,7 @@
         <v>229</v>
       </c>
       <c r="H45" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2370,7 +2367,7 @@
         <v>239</v>
       </c>
       <c r="H47" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2396,7 +2393,7 @@
         <v>236</v>
       </c>
       <c r="H48" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2422,7 +2419,7 @@
         <v>240</v>
       </c>
       <c r="H49" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2448,7 +2445,7 @@
         <v>234</v>
       </c>
       <c r="H50" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2474,7 +2471,7 @@
         <v>234</v>
       </c>
       <c r="H51" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2500,7 +2497,7 @@
         <v>241</v>
       </c>
       <c r="H52" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2526,7 +2523,7 @@
         <v>242</v>
       </c>
       <c r="H53" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2552,7 +2549,7 @@
         <v>229</v>
       </c>
       <c r="H54" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2578,7 +2575,7 @@
         <v>223</v>
       </c>
       <c r="H55" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2604,7 +2601,7 @@
         <v>243</v>
       </c>
       <c r="H56" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2630,7 +2627,7 @@
         <v>234</v>
       </c>
       <c r="H57" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2682,7 +2679,7 @@
         <v>223</v>
       </c>
       <c r="H59" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2708,7 +2705,7 @@
         <v>244</v>
       </c>
       <c r="H60" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2812,7 +2809,7 @@
         <v>235</v>
       </c>
       <c r="H64" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2838,7 +2835,7 @@
         <v>218</v>
       </c>
       <c r="H65" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2864,7 +2861,7 @@
         <v>236</v>
       </c>
       <c r="H66" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2890,7 +2887,7 @@
         <v>225</v>
       </c>
       <c r="H67" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2916,7 +2913,7 @@
         <v>240</v>
       </c>
       <c r="H68" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2942,7 +2939,7 @@
         <v>234</v>
       </c>
       <c r="H69" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2968,7 +2965,7 @@
         <v>234</v>
       </c>
       <c r="H70" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2994,7 +2991,7 @@
         <v>223</v>
       </c>
       <c r="H71" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3017,10 +3014,10 @@
         <v>200</v>
       </c>
       <c r="G72" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="H72" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3072,7 +3069,7 @@
         <v>234</v>
       </c>
       <c r="H74" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3098,7 +3095,7 @@
         <v>234</v>
       </c>
       <c r="H75" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3121,10 +3118,10 @@
         <v>202</v>
       </c>
       <c r="G76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H76" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3147,10 +3144,10 @@
         <v>203</v>
       </c>
       <c r="G77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H77" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3176,7 +3173,7 @@
         <v>224</v>
       </c>
       <c r="H78" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3199,10 +3196,10 @@
         <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H79" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3225,10 +3222,10 @@
         <v>204</v>
       </c>
       <c r="G80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H80" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3254,7 +3251,7 @@
         <v>218</v>
       </c>
       <c r="H81" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3277,10 +3274,10 @@
         <v>206</v>
       </c>
       <c r="G82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H82" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3384,7 +3381,7 @@
         <v>236</v>
       </c>
       <c r="H86" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3407,10 +3404,10 @@
         <v>209</v>
       </c>
       <c r="G87" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H87" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3459,10 +3456,10 @@
         <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H89" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3511,10 +3508,10 @@
         <v>212</v>
       </c>
       <c r="G91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H91" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3537,10 +3534,10 @@
         <v>213</v>
       </c>
       <c r="G92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H92" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3592,7 +3589,7 @@
         <v>236</v>
       </c>
       <c r="H94" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3618,7 +3615,7 @@
         <v>225</v>
       </c>
       <c r="H95" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3641,10 +3638,10 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H96" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3667,10 +3664,10 @@
         <v>105</v>
       </c>
       <c r="G97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H97" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3693,10 +3690,10 @@
         <v>216</v>
       </c>
       <c r="G98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H98" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3719,10 +3716,10 @@
         <v>217</v>
       </c>
       <c r="G99" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H99" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3748,7 +3745,7 @@
         <v>225</v>
       </c>
       <c r="H100" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3774,7 +3771,7 @@
         <v>218</v>
       </c>
       <c r="H101" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
